--- a/data/long_razon/IMC_R-Edad-long_razon.xlsx
+++ b/data/long_razon/IMC_R-Edad-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-38,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>137,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>23,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-61,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-14,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,22%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-82,4; 102,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-55,8; 885,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-62,45; 264,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-94,03; 109,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-61,06; 90,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-53,9; 171,53</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>32,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>47,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>20,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,44%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-54,04; 226,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-66,54; 166,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-67,73; 197,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-38,89; 244,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-38,29; 143,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-40,1; 123,57</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-51,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>61,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-49,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>109,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-50,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>82,23%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-82,65; 24,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-25,74; 273,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-79,93; 19,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,67; 344,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-77,64; -4,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,84; 199,08</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -841,32 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>131,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-27,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>54,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-13,29%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,19; 460,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-76,27; 47,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-43,52; 104,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-43,77; 94,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 185,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-50,3; 41,86</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -921,32 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-39,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-28,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-19,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>24,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-30,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-8,83%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -959,32 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-77,14; 27,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-62,95; 35,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-64,87; 84,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-41,86; 163,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-60,39; 16,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-42,35; 43,79</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-41,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-34,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>21,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-7,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-18,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-22,6%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-74,49; 37,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-68,76; 28,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-55,82; 203,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-56,74; 100,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-58,17; 42,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-52,94; 32,83</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-16,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-5,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-11,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1119,47 +1564,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-40,13; 21,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-26,66; 34,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-31,5; 33,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-13,06; 59,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-30,29; 13,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,23; 34,35</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/long_razon/IMC_R-Edad-long_razon.xlsx
+++ b/data/long_razon/IMC_R-Edad-long_razon.xlsx
@@ -659,18 +659,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.3653782421276953</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.732464780255137</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.8679441368799444</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.4352477754109383</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.5750162509686207</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.6458225837269447</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-0.3206041822616007</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.819659114141396</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.01390293080801714</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.2321999293356028</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>0.2624449332190653</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.5402263940225404</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -679,18 +703,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.8381757503396668</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.3683757821957857</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.5510799348665035</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.5291235625512315</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.4335910266918007</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.8745444108212846</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.7487351584231132</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.5519484156409387</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.519622429174002</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.4755927573345697</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.413144491363569</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -699,18 +747,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>1.021595353973152</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>9.750337033312462</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>8.1280918805911</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>4.65190180150549</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>4.033758531768924</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.3854931167498487</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>1.243478889623144</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>8.405204855377168</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>1.286352659587825</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>2.280007504115916</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>1.983171785137612</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>2.612994986526443</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -723,18 +795,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>0.3605676747218129</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.03912276380880315</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.3559464669340802</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.5206724479727441</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.02004318785755611</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.4574352545428098</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.5602666900647408</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>4.180886856843001</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.2013661198090533</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.1637833504461929</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.2001882390172072</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.197727098269786</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -743,18 +839,40 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.5305546165747114</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.6622891582556426</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.8834598306066312</v>
+      </c>
       <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="n">
+        <v>-0.689093452293791</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.431063556223356</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.3276630112567617</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.3097748791713666</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.4153000978945681</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.3608934060150155</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.4106968125372396</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.6048302600870104</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -763,18 +881,38 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>2.330502773000681</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.531306832153307</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1.778219889310295</v>
+      </c>
       <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="n">
+        <v>1.796716323468065</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>2.570306113218872</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>2.496150464840782</v>
+      </c>
       <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="n">
+        <v>1.628075280809645</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>1.243596010864993</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>1.58846120715758</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>3.093089461154068</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -787,18 +925,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.5053367385057425</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.5512884457528332</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.2173252422112305</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.174305605429461</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.4744929358637399</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>1.123108580793731</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.2409313780394365</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.4227191293391871</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.493097929045971</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.7907713895505157</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>-0.01066311210814221</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.2834505410028102</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -807,18 +969,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.8247790498188671</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.2427124949603477</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.4149298506902644</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.5981136202042908</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.7940466209758845</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>0.1012173457632474</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.5946415541271355</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.4647468066686629</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.7367171649328471</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>0.1348076335156219</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.3798049012100441</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.3826662952779797</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -827,18 +1013,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>0.198108782677867</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>3.055552225456521</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.568537556359679</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>2.345533053252451</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.3484558419450283</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>3.011558317814253</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.4942069571610906</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>2.827149208624115</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>-0.06629955250843511</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>2.127867122407971</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.6447663588449314</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>1.405192325046099</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -851,18 +1061,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>1.311025881469472</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.2578035674430301</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.473682147030943</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.139759913638415</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.1144064840669507</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.03816580576203569</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>-0.500358107364214</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.1437980206033161</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.5527223589953322</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>-0.1231300902888249</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>-0.4873453025395689</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.4017428663965174</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -871,18 +1105,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>0.06200891637853652</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.7531656383055292</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.7466594146887057</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.3822546968906809</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.4079019861014026</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.4722005015893453</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.7518296503050306</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.6399407038021669</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.03187045811172368</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.5082245627110086</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.6941967589987863</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-0.2517833900920647</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -891,18 +1149,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>5.32628083225141</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.5330719583810198</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.07649580833535299</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>6.611769648582703</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>1.222246649379641</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.9105739966438118</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>-0.03674208247153725</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.9819002691388424</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>1.649813151801213</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.3817597211600499</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>-0.2075130295675924</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>2.169771647211401</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -915,18 +1197,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr"/>
-      <c r="D16" s="5" t="inlineStr"/>
-      <c r="E16" s="5" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr"/>
-      <c r="G16" s="5" t="inlineStr"/>
-      <c r="H16" s="5" t="inlineStr"/>
-      <c r="I16" s="5" t="inlineStr"/>
-      <c r="J16" s="5" t="inlineStr"/>
-      <c r="K16" s="5" t="inlineStr"/>
-      <c r="L16" s="5" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="5" t="inlineStr"/>
+      <c r="C16" s="5" t="n">
+        <v>-0.3254833955957274</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-0.2994679335101944</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.2054818581493847</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-0.1943655887497759</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>-0.2425456626835238</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>0.2303884212908628</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>-0.420628097022106</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>-0.6208690453578463</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>-0.2857022606873975</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>-0.1034728270838851</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>-0.339155712938061</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>-0.4113615502891441</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -935,18 +1241,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr"/>
-      <c r="D17" s="5" t="inlineStr"/>
-      <c r="E17" s="5" t="inlineStr"/>
-      <c r="F17" s="5" t="inlineStr"/>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="inlineStr"/>
-      <c r="K17" s="5" t="inlineStr"/>
-      <c r="L17" s="5" t="inlineStr"/>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="inlineStr"/>
+      <c r="C17" s="5" t="n">
+        <v>-0.726456883232769</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-0.6236730659723184</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-0.6440521317545121</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-0.7223072921590549</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-0.6635697531899196</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-0.441625305260907</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>-0.7191013405273776</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>-0.9146655789968582</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>-0.595327855519503</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>-0.4553122797092998</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>-0.5943617460136426</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>-0.7373917497196819</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -955,18 +1285,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr"/>
-      <c r="D18" s="5" t="inlineStr"/>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr"/>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr"/>
+      <c r="C18" s="5" t="n">
+        <v>0.549019750698742</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.3836027947934431</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.7481593011335269</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>1.652536799249513</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.8104444597991056</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>1.766695540948268</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>0.1860795094092384</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>0.1551450481460117</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>0.245680049564232</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>0.4935873495228871</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>0.08696829683032721</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>0.2255717977854105</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -979,18 +1333,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr"/>
-      <c r="D19" s="5" t="inlineStr"/>
-      <c r="E19" s="5" t="inlineStr"/>
-      <c r="F19" s="5" t="inlineStr"/>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr"/>
-      <c r="I19" s="5" t="inlineStr"/>
-      <c r="J19" s="5" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr"/>
-      <c r="L19" s="5" t="inlineStr"/>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr"/>
+      <c r="C19" s="5" t="n">
+        <v>-0.3734034034537604</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-0.3346062183905624</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-0.5707237193908065</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0.2511049524159046</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>0.06868894365336535</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>-0.01799508559134129</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>-0.07826799753271636</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>0.2042008121853685</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>-0.2041077348296883</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>-0.1897702546828987</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>-0.3884530655002233</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>0.2291394033597037</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -999,18 +1377,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr"/>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr"/>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr"/>
-      <c r="I20" s="5" t="inlineStr"/>
-      <c r="J20" s="5" t="inlineStr"/>
-      <c r="K20" s="5" t="inlineStr"/>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr"/>
+      <c r="C20" s="5" t="n">
+        <v>-0.7258702883680599</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-0.6823835970359987</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-0.8861357937976043</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-0.5335852738352858</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>-0.5802164982274558</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>-0.5836384516385048</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>-0.7466827151171747</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>-0.6258478669451067</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>-0.5556524196689064</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>-0.5060022894170889</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>-0.7305967212299996</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>-0.3404141285740031</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1019,18 +1421,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr"/>
-      <c r="D21" s="5" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr"/>
-      <c r="F21" s="5" t="inlineStr"/>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
-      <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="inlineStr"/>
-      <c r="K21" s="5" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr"/>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr"/>
+      <c r="C21" s="5" t="n">
+        <v>0.3765370856960086</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>0.2978979721128076</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>0.3203140759979211</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>2.094711140724185</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>1.924704143113084</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>1.109443664732944</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>1.981597506748585</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>3.528340836354284</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>0.4564488239187554</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <v>0.3325751447640892</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>0.3080407117796608</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>1.506930112072838</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1043,18 +1469,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr"/>
-      <c r="D22" s="5" t="inlineStr"/>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="5" t="inlineStr"/>
-      <c r="G22" s="5" t="inlineStr"/>
-      <c r="H22" s="5" t="inlineStr"/>
-      <c r="I22" s="5" t="inlineStr"/>
-      <c r="J22" s="5" t="inlineStr"/>
-      <c r="K22" s="5" t="inlineStr"/>
-      <c r="L22" s="5" t="inlineStr"/>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr"/>
+      <c r="C22" s="5" t="n">
+        <v>-0.1370379889430417</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.01856802222693679</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.1827164002320438</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1926913153792218</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>-0.03486076371811655</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>0.1750664545050229</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>-0.2183398615343185</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>0.2049907168071111</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>-0.09132262723487382</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>0.08847833898468679</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>-0.2008091454135161</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>0.1979469934009006</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1063,18 +1513,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr"/>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="inlineStr"/>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="inlineStr"/>
-      <c r="K23" s="5" t="inlineStr"/>
-      <c r="L23" s="5" t="inlineStr"/>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr"/>
+      <c r="C23" s="5" t="n">
+        <v>-0.3881321686991035</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.2835566393576277</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.4496626506936052</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-0.2323803499255497</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-0.2938443556127103</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-0.1274433064888084</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>-0.4427212559958827</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>-0.2097233823608103</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>-0.3089377348677027</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>-0.1351955155045651</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>-0.3659722413649906</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>-0.1251902882883328</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1083,18 +1557,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="inlineStr"/>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="inlineStr"/>
-      <c r="K24" s="5" t="inlineStr"/>
-      <c r="L24" s="5" t="inlineStr"/>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="inlineStr"/>
+      <c r="C24" s="5" t="n">
+        <v>0.2179900330736996</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.3979766019178814</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.258415220459186</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.9094183890827368</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.3613565251488167</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>0.6157385010427895</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>0.09734653205936356</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>0.9557270256751327</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>0.1407435884442021</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>0.3634295994713682</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>0.03736810957042443</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>0.6822994025666238</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
